--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R204_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R204_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -419,10 +431,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -466,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="2">
+      <c r="C12" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -512,28 +524,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -650,10 +662,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="J18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -697,28 +709,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="A20" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s" s="2">
+      <c r="C20" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -743,28 +755,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="2">
+      <c r="I22" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -910,10 +922,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="2" t="s">
+      <c r="J27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -957,28 +969,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="2">
+      <c r="C29" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1003,28 +1015,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="2">
+      <c r="I31" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1431,10 +1443,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="2" t="s">
+      <c r="J45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1478,28 +1490,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="2">
+      <c r="A47" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="2">
+      <c r="C47" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1524,28 +1536,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="2">
+      <c r="I49" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1749,10 +1761,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="2" t="s">
+      <c r="J56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1796,28 +1808,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="2">
+      <c r="A58" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="2">
+      <c r="C58" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1842,28 +1854,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="2">
+      <c r="I60" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2473,10 +2485,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="2" t="s">
+      <c r="J81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2520,28 +2532,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="2">
+      <c r="A83" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="2">
+      <c r="C83" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2566,28 +2578,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="2">
+      <c r="C85" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="2">
+      <c r="D85" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="2">
+      <c r="I85" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2878,10 +2890,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="2" t="s">
+      <c r="J95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2925,28 +2937,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="2">
+      <c r="A97" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="2">
+      <c r="C97" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2971,28 +2983,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="2">
+      <c r="I99" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3196,10 +3208,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="2" t="s">
+      <c r="J106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3243,28 +3255,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="2">
+      <c r="C108" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3289,28 +3301,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3427,10 +3439,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="2" t="s">
+      <c r="J114" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3474,28 +3486,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="2">
+      <c r="A116" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="2">
+      <c r="C116" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3520,28 +3532,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="2">
+      <c r="I118" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3745,10 +3757,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="2" t="s">
+      <c r="J125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3792,28 +3804,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s" s="2">
+      <c r="C127" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3838,28 +3850,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4092,10 +4104,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="2" t="s">
+      <c r="J137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4139,28 +4151,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="2">
+      <c r="A139" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="2">
+      <c r="C139" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4185,28 +4197,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="C141" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="2">
+      <c r="D141" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="2">
+      <c r="I141" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4468,10 +4480,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="J150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4515,28 +4527,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4561,28 +4573,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4699,10 +4711,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="2" t="s">
+      <c r="J158" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4746,28 +4758,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="2">
+      <c r="A160" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="2">
+      <c r="C160" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4792,28 +4804,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="C162" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="2">
+      <c r="D162" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="2">
+      <c r="I162" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4901,10 +4913,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="2" t="s">
+      <c r="J165" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4948,28 +4960,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="2">
+      <c r="A167" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s" s="2">
+      <c r="C167" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4994,28 +5006,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="2">
+      <c r="C169" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="2">
+      <c r="D169" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="2">
+      <c r="I169" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5132,10 +5144,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K173" s="2" t="s">
+      <c r="J173" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K173" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5179,28 +5191,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="2">
+      <c r="A175" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s" s="2">
+      <c r="C175" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5225,28 +5237,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="2">
+      <c r="I177" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5334,10 +5346,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="2" t="s">
+      <c r="J180" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5381,28 +5393,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="2">
+      <c r="A182" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="2">
+      <c r="C182" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5427,28 +5439,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="C184" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="2">
+      <c r="D184" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="2">
+      <c r="I184" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5507,10 +5519,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="2" t="s">
+      <c r="J186" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
